--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H2">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I2">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J2">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N2">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q2">
-        <v>4.476297912032888</v>
+        <v>32.09774647945444</v>
       </c>
       <c r="R2">
-        <v>40.286681208296</v>
+        <v>288.87971831509</v>
       </c>
       <c r="S2">
-        <v>0.002627356818714245</v>
+        <v>0.01972440180101501</v>
       </c>
       <c r="T2">
-        <v>0.002627356818714245</v>
+        <v>0.01972440180101501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H3">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I3">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J3">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P3">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q3">
-        <v>8.069643063942888</v>
+        <v>102.5484301530352</v>
       </c>
       <c r="R3">
-        <v>72.62678757548599</v>
+        <v>922.935871377317</v>
       </c>
       <c r="S3">
-        <v>0.004736465745867158</v>
+        <v>0.06301708569156127</v>
       </c>
       <c r="T3">
-        <v>0.004736465745867158</v>
+        <v>0.06301708569156127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H4">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I4">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J4">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q4">
-        <v>2.167956263224</v>
+        <v>27.550228637428</v>
       </c>
       <c r="R4">
-        <v>19.511606369016</v>
+        <v>247.952057736852</v>
       </c>
       <c r="S4">
-        <v>0.001272478906183664</v>
+        <v>0.01692990440005794</v>
       </c>
       <c r="T4">
-        <v>0.001272478906183664</v>
+        <v>0.01692990440005794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>22.726216</v>
       </c>
       <c r="I5">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J5">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N5">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q5">
-        <v>450.3728261681458</v>
+        <v>254.1283097633155</v>
       </c>
       <c r="R5">
-        <v>4053.355435513312</v>
+        <v>2287.15478786984</v>
       </c>
       <c r="S5">
-        <v>0.2643457024197699</v>
+        <v>0.1561645112373521</v>
       </c>
       <c r="T5">
-        <v>0.2643457024197699</v>
+        <v>0.1561645112373521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>22.726216</v>
       </c>
       <c r="I6">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J6">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P6">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q6">
         <v>811.9093108406657</v>
@@ -818,10 +818,10 @@
         <v>7307.183797565992</v>
       </c>
       <c r="S6">
-        <v>0.4765490380523033</v>
+        <v>0.4989267855068022</v>
       </c>
       <c r="T6">
-        <v>0.4765490380523032</v>
+        <v>0.4989267855068022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>22.726216</v>
       </c>
       <c r="I7">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J7">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q7">
         <v>218.124130356128</v>
@@ -880,10 +880,10 @@
         <v>1963.117173205152</v>
       </c>
       <c r="S7">
-        <v>0.1280276542087928</v>
+        <v>0.1340395654378777</v>
       </c>
       <c r="T7">
-        <v>0.1280276542087928</v>
+        <v>0.1340395654378777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>3.202389</v>
       </c>
       <c r="I8">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J8">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N8">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q8">
-        <v>63.462786080172</v>
+        <v>35.80964397129</v>
       </c>
       <c r="R8">
-        <v>571.165074721548</v>
+        <v>322.28679574161</v>
       </c>
       <c r="S8">
-        <v>0.03724939381137381</v>
+        <v>0.02200540173414143</v>
       </c>
       <c r="T8">
-        <v>0.03724939381137381</v>
+        <v>0.02200540173414143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.202389</v>
       </c>
       <c r="I9">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J9">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>321.531037</v>
       </c>
       <c r="O9">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P9">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q9">
         <v>114.407495116377</v>
@@ -1004,10 +1004,10 @@
         <v>1029.667456047393</v>
       </c>
       <c r="S9">
-        <v>0.06715131975421151</v>
+        <v>0.07030460547027903</v>
       </c>
       <c r="T9">
-        <v>0.06715131975421149</v>
+        <v>0.07030460547027903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.202389</v>
       </c>
       <c r="I10">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J10">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q10">
         <v>30.736235002212</v>
@@ -1066,10 +1066,10 @@
         <v>276.626115019908</v>
       </c>
       <c r="S10">
-        <v>0.01804059028278363</v>
+        <v>0.01888773872091332</v>
       </c>
       <c r="T10">
-        <v>0.01804059028278362</v>
+        <v>0.01888773872091332</v>
       </c>
     </row>
   </sheetData>
